--- a/aiurt-module-system/src/main/resources/templates/csmajorexcel.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csmajorexcel.xlsx
@@ -54,6 +54,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>专业信息导入错误清单</t>
     </r>
     <r>
@@ -79,7 +87,7 @@
     <t>错误原因</t>
   </si>
   <si>
-    <t>{{$fe:maplist t.majorcode</t>
+    <t>{{fe:maplist t.majorcode</t>
   </si>
   <si>
     <t>t.majorname</t>
@@ -98,7 +106,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +125,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -651,48 +652,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,97 +706,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1178,7 +1179,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
